--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/twi-data/twint/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF9B9D4-7833-4647-B5D6-FF9EADE2B418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5848E-E502-C048-AA84-60B673F7040F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3360" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5320" yWindow="5900" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="224">
   <si>
     <t>LEMMA</t>
   </si>
@@ -1181,8 +1181,8 @@
   <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1444,7 +1444,7 @@
         <v>214</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -3114,9 +3114,6 @@
       <c r="A121" t="s">
         <v>195</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
@@ -3290,7 +3287,7 @@
         <v>221</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5848E-E502-C048-AA84-60B673F7040F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B328D75-F80C-EE4C-93E2-13F0F73BE842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="5900" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="232">
   <si>
     <t>LEMMA</t>
   </si>
@@ -708,6 +708,30 @@
   </si>
   <si>
     <t>passive</t>
+  </si>
+  <si>
+    <t>eco-anxiety</t>
+  </si>
+  <si>
+    <t>ecocide</t>
+  </si>
+  <si>
+    <t>flight shame</t>
+  </si>
+  <si>
+    <t>global heating</t>
+  </si>
+  <si>
+    <t>&lt;=2012</t>
+  </si>
+  <si>
+    <t>climate denial</t>
+  </si>
+  <si>
+    <t>climate crisis</t>
+  </si>
+  <si>
+    <t>refugee crisis</t>
   </si>
 </sst>
 </file>
@@ -1178,11 +1202,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3290,12 +3314,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>222</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>188</v>
+      <c r="C145" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>231</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B328D75-F80C-EE4C-93E2-13F0F73BE842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F891F-A763-9A4E-ACBA-5FB5596F65B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6400" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="233">
   <si>
     <t>LEMMA</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>refugee crisis</t>
+  </si>
+  <si>
+    <t>climate emergency</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
@@ -1350,9 +1353,6 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="C7" s="3" t="s">
         <v>164</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="A13" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       <c r="A144" t="s">
         <v>221</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3356,13 +3356,24 @@
       <c r="A152" t="s">
         <v>230</v>
       </c>
+      <c r="C152" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>231</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>190</v>
+      <c r="C153" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>232</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F891F-A763-9A4E-ACBA-5FB5596F65B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191E488-DFDF-F14A-93C7-1EA95A390062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="233">
   <si>
     <t>LEMMA</t>
   </si>
@@ -1208,8 +1208,8 @@
   <dimension ref="A1:K154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B154" sqref="B154"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3305,6 +3305,9 @@
       <c r="A143" t="s">
         <v>220</v>
       </c>
+      <c r="C143" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
@@ -3351,13 +3354,16 @@
       <c r="A151" t="s">
         <v>229</v>
       </c>
+      <c r="C151" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>230</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191E488-DFDF-F14A-93C7-1EA95A390062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05438FB4-CDA0-B94B-B237-384082C50F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1205,11 +1205,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C152" sqref="C152"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3339,6 +3339,9 @@
       <c r="A148" t="s">
         <v>226</v>
       </c>
+      <c r="C148" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
@@ -3347,20 +3350,23 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>8</v>
@@ -3368,17 +3374,9 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
-        <v>232</v>
-      </c>
-      <c r="C154" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05438FB4-CDA0-B94B-B237-384082C50F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FFDB78-8084-034C-83E7-ED3F86E3A4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="233">
   <si>
     <t>LEMMA</t>
   </si>
@@ -1209,7 +1209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3340,12 +3340,15 @@
         <v>226</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>227</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FFDB78-8084-034C-83E7-ED3F86E3A4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C712FB-B052-6F46-B0DB-B064EC14BE11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="233">
   <si>
     <t>LEMMA</t>
   </si>
@@ -1209,7 +1209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3334,6 +3334,9 @@
       <c r="A147" t="s">
         <v>225</v>
       </c>
+      <c r="C147" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
@@ -3348,7 +3351,7 @@
         <v>227</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C712FB-B052-6F46-B0DB-B064EC14BE11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B01772-5983-7646-AF1E-623651E94A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,7 +1209,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3335,7 +3335,7 @@
         <v>225</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B01772-5983-7646-AF1E-623651E94A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697F8E7-9BE8-3D46-B2A5-589BB09EB7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="233">
   <si>
     <t>LEMMA</t>
   </si>
@@ -1208,8 +1208,8 @@
   <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3328,6 +3328,9 @@
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>224</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697F8E7-9BE8-3D46-B2A5-589BB09EB7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DFED33-C0ED-AE49-B1D5-B585468CDEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="extracta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">overview!$A$1:$K$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">overview!$A$1:$K$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="230">
   <si>
     <t>LEMMA</t>
   </si>
@@ -617,9 +617,6 @@
     <t>tookah</t>
   </si>
   <si>
-    <t>amirite</t>
-  </si>
-  <si>
     <t>cosplay</t>
   </si>
   <si>
@@ -665,9 +662,6 @@
     <t>remoaner</t>
   </si>
   <si>
-    <t>refugee</t>
-  </si>
-  <si>
     <t>political correctness</t>
   </si>
   <si>
@@ -683,9 +677,6 @@
     <t>benching</t>
   </si>
   <si>
-    <t>orbiting</t>
-  </si>
-  <si>
     <t>dogfishing</t>
   </si>
   <si>
@@ -695,9 +686,6 @@
     <t>cowork</t>
   </si>
   <si>
-    <t>tiny house</t>
-  </si>
-  <si>
     <t>artificial intelligence</t>
   </si>
   <si>
@@ -735,6 +723,9 @@
   </si>
   <si>
     <t>climate emergency</t>
+  </si>
+  <si>
+    <t>incel</t>
   </si>
 </sst>
 </file>
@@ -1205,11 +1196,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B149" sqref="B149"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1312,41 +1303,44 @@
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>216</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1374,33 +1368,33 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -1463,64 +1457,49 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>132</v>
+        <v>115</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
@@ -1528,22 +1507,22 @@
         <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
@@ -1551,22 +1530,22 @@
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
@@ -1574,15 +1553,15 @@
         <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -1597,18 +1576,15 @@
         <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1623,72 +1599,84 @@
         <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>143</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>211</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
       <c r="F22" s="3">
         <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
       <c r="F23" s="3">
         <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -1696,24 +1684,18 @@
     </row>
     <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
       <c r="F25" s="3">
         <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
@@ -1727,33 +1709,30 @@
     </row>
     <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1761,36 +1740,33 @@
     </row>
     <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
       <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="3">
         <v>5</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="J29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -1798,7 +1774,7 @@
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
@@ -1810,18 +1786,18 @@
         <v>1</v>
       </c>
       <c r="H31" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="J31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
@@ -1831,95 +1807,35 @@
       </c>
       <c r="F32" s="3">
         <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J32" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
@@ -1930,16 +1846,19 @@
       <c r="F36" s="3">
         <v>1</v>
       </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
       <c r="I36" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="J36" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
@@ -1950,545 +1869,518 @@
       <c r="F37" s="3">
         <v>1</v>
       </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="J37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39">
+        <v>10000</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40">
-        <v>10000</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
+        <v>60</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43">
+        <v>10000</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44">
-        <v>10000</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
+        <v>201</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
       <c r="F45" s="3">
         <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" t="s">
-        <v>151</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B46"/>
+      <c r="C46">
+        <v>10000</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47">
-        <v>10000</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
+        <v>64</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52">
+        <v>10000</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60">
+        <v>10000</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64">
+        <v>20000</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+      <c r="C69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51">
-        <v>10000</v>
-      </c>
-      <c r="D51">
+      <c r="C72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73">
+        <v>20000</v>
+      </c>
+      <c r="D73">
         <v>0</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5</v>
-      </c>
-      <c r="J52" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53">
-        <v>10000</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61">
-        <v>10000</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3">
-        <v>5</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65">
-        <v>20000</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>213</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74"/>
-      <c r="C74">
-        <v>20000</v>
-      </c>
+      <c r="C74"/>
       <c r="D74">
         <v>0</v>
       </c>
@@ -2500,352 +2392,298 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75">
+        <v>27</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82">
+        <v>10000</v>
+      </c>
+      <c r="D82">
         <v>0</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>36</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>90</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="3">
-        <v>1</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
         <v>5</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J81" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>38</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3">
+      <c r="J83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86">
+        <v>20000</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>229</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="3">
         <v>5</v>
       </c>
-      <c r="I82" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83">
-        <v>10000</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="3">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87"/>
-      <c r="C87">
-        <v>20000</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87"/>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="3">
-        <v>3</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J88" t="s">
-        <v>97</v>
-      </c>
-      <c r="K88" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="3">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="3">
+      <c r="I93" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3">
         <v>5</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J90" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="3">
-        <v>1</v>
-      </c>
-      <c r="F91" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="3">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
-      <c r="H94" s="3">
-        <v>2</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J94" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="3">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="I95" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J95" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>8</v>
@@ -2854,17 +2692,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>202</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>188</v>
+        <v>32</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>8</v>
@@ -2894,7 +2735,7 @@
     </row>
     <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>8</v>
@@ -2905,7 +2746,7 @@
     </row>
     <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>8</v>
@@ -2916,7 +2757,7 @@
     </row>
     <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>8</v>
@@ -2927,7 +2768,7 @@
     </row>
     <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>8</v>
@@ -2935,52 +2776,34 @@
       <c r="F103" s="3">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="3">
-        <v>1</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J105" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>8</v>
@@ -2990,29 +2813,14 @@
       </c>
       <c r="F107" s="3">
         <v>1</v>
-      </c>
-      <c r="G107" s="3">
-        <v>1</v>
-      </c>
-      <c r="H107" s="3">
-        <v>4</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J107" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D108" s="3">
-        <v>1</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -3020,48 +2828,57 @@
     </row>
     <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="3">
         <v>1</v>
+      </c>
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+      <c r="H109" s="3">
+        <v>5</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J109" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B110"/>
+      <c r="C110">
+        <v>20000</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
     </row>
     <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>108</v>
-      </c>
-      <c r="B111"/>
-      <c r="C111">
-        <v>20000</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
+        <v>208</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>8</v>
@@ -3069,347 +2886,510 @@
       <c r="F112" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>5</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
-        <v>212</v>
-      </c>
       <c r="C116" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3">
+        <v>3</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J116" t="s">
+        <v>97</v>
+      </c>
+      <c r="K116" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>216</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3">
+        <v>1</v>
+      </c>
+      <c r="H123" s="3">
+        <v>5</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="D124" s="3">
         <v>1</v>
       </c>
-      <c r="G124" s="3">
-        <v>1</v>
-      </c>
-      <c r="H124" s="3">
-        <v>5</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+      <c r="H128" s="3">
+        <v>2</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>192</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>104</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>159</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>106</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>1</v>
+      </c>
+      <c r="H142" s="3">
+        <v>4</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>107</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>114</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>122</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
         <v>204</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
+      <c r="B146" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
-        <v>201</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>198</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
-        <v>208</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
-        <v>206</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
-        <v>207</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>210</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>211</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
-        <v>219</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
-        <v>205</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
-        <v>218</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
-        <v>220</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>221</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>222</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
-        <v>224</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
-        <v>225</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>226</v>
-      </c>
       <c r="C148" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
-        <v>230</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
-        <v>231</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
-        <v>232</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>8</v>
+      <c r="F150" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K142" xr:uid="{576E4254-9319-6842-978B-01BB5F4A9051}">
+  <autoFilter ref="A1:K150" xr:uid="{576E4254-9319-6842-978B-01BB5F4A9051}">
     <filterColumn colId="2">
       <filters blank="1">
         <filter val="&lt;= 2013"/>
+        <filter val="&lt;=2012"/>
         <filter val="2000–2016"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K141">
-      <sortCondition ref="A1:A141"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K150">
+      <sortCondition ref="A1:A150"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F1:F102 F104:F1048576">
+  <conditionalFormatting sqref="F104:F1048576 F1:F102">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="F8">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"1$F:$F"</formula>
     </cfRule>

--- a/lemmas.xlsx
+++ b/lemmas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/promo/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DFED33-C0ED-AE49-B1D5-B585468CDEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692C3431-99E8-C145-9B38-519D932C1AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="24460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="230">
   <si>
     <t>LEMMA</t>
   </si>
@@ -1199,8 +1199,8 @@
   <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1469,8 +1469,8 @@
       <c r="A14" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>188</v>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
@@ -2147,8 +2147,8 @@
       <c r="A54" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>190</v>
+      <c r="C54" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.15">
@@ -2303,6 +2303,9 @@
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>194</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
